--- a/exports/Fund_Export_20260216_132538_manual_api_manual.xlsx
+++ b/exports/Fund_Export_20260216_132538_manual_api_manual.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-16 13:25:39</t>
+          <t>2026-02-16 13:25:40</t>
         </is>
       </c>
     </row>
